--- a/BVNSA/CurvaRendimiento.xlsx
+++ b/BVNSA/CurvaRendimiento.xlsx
@@ -199,8 +199,8 @@
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="14.3" customWidth="1"/>
-    <col min="3" max="3" width="15.600000000000001" customWidth="1"/>
-    <col min="4" max="4" width="7.800000000000001" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="15.600000000000001" customWidth="1"/>
@@ -229,7 +229,7 @@
       </c>
       <c t="inlineStr" s="2" r="B2">
         <is>
-          <t>Curva de Rendimiento del 17/11/2022</t>
+          <t>Curva de Rendimiento del 07/12/2022</t>
         </is>
       </c>
     </row>
@@ -290,89 +290,6 @@
         <is>
           <t>Rendimiento</t>
         </is>
-      </c>
-    </row>
-    <row r="6">
-      <c t="inlineStr" r="A6">
-        <is>
-          <t>10-2018</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B6">
-        <is>
-          <t>CERTIBONO$</t>
-        </is>
-      </c>
-      <c t="n" r="D6">
-        <v>0.0000</v>
-      </c>
-      <c t="inlineStr" r="E6">
-        <is>
-          <t>Semestral</t>
-        </is>
-      </c>
-      <c r="F6" s="65">
-        <v>360</v>
-      </c>
-      <c t="inlineStr" r="G6">
-        <is>
-          <t>16/10/2018</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H6">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
-      <c r="I6" s="63">
-        <v>1739</v>
-      </c>
-      <c t="n" r="J6">
-        <v>4.25000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="inlineStr" r="A7">
-        <is>
-          <t>005-2022</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B7">
-        <is>
-          <t>CERTIBONO$</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="C7">
-        <is>
-          <t>GTMFPG0002I8</t>
-        </is>
-      </c>
-      <c t="n" r="D7">
-        <v>4.5000</v>
-      </c>
-      <c t="inlineStr" r="E7">
-        <is>
-          <t>Semestral</t>
-        </is>
-      </c>
-      <c r="F7" s="65">
-        <v>360</v>
-      </c>
-      <c t="inlineStr" r="G7">
-        <is>
-          <t>29/03/2022</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="H7">
-        <is>
-          <t>18/11/2037</t>
-        </is>
-      </c>
-      <c r="I7" s="63">
-        <v>5629</v>
-      </c>
-      <c t="n" r="J7">
-        <v>4.49990</v>
       </c>
     </row>
   </sheetData>
